--- a/Employee_Reports35/Nhar Jaradal Cillo Q0494.xlsx
+++ b/Employee_Reports35/Nhar Jaradal Cillo Q0494.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="I14" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="4" t="inlineStr">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>-150</v>
+        <v>-151</v>
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
@@ -1210,11 +1210,11 @@
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>-390</v>
+        <v>-391</v>
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
@@ -1259,11 +1259,11 @@
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>-95</v>
+        <v>-96</v>
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
@@ -1296,11 +1296,11 @@
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>-95</v>
+        <v>-96</v>
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
@@ -1345,11 +1345,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1394,11 +1394,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1434,20 +1434,20 @@
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>23-Jul-2025</t>
+          <t>30-Jul-2025</t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>23-Jul-2026</t>
+          <t>30-Jul-2026</t>
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1492,11 +1492,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1532,20 +1532,20 @@
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>14-Sep-2025</t>
+          <t>18-Aug-2025</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>14-Sep-2026</t>
+          <t>18-Aug-2026</t>
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1581,20 +1581,20 @@
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>14-Sep-2025</t>
+          <t>19-Aug-2025</t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>14-Sep-2026</t>
+          <t>19-Aug-2026</t>
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>ULD Hoist Drve Motor Replacement (SOPs)</t>
+          <t>IS0 55001 (Other Trainings)</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -1618,20 +1618,20 @@
       <c r="E25" s="3" t="inlineStr"/>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>31-Aug-2025</t>
+          <t>12-Oct-2025</t>
         </is>
       </c>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>31-Aug-2026</t>
+          <t>12-Oct-2027</t>
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>301</v>
+        <v>707</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1640,43 +1640,6 @@
         </is>
       </c>
       <c r="K25" s="3" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>IS0 55001 (Other Trainings)</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr"/>
-      <c r="D26" s="3" t="inlineStr"/>
-      <c r="E26" s="3" t="inlineStr"/>
-      <c r="F26" s="3" t="inlineStr">
-        <is>
-          <t>12-Oct-2025</t>
-        </is>
-      </c>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>12-Oct-2027</t>
-        </is>
-      </c>
-      <c r="H26" s="3" t="n">
-        <v>708</v>
-      </c>
-      <c r="I26" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K26" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Nhar Jaradal Cillo Q0494.xlsx
+++ b/Employee_Reports35/Nhar Jaradal Cillo Q0494.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>-32</v>
+        <v>-33</v>
       </c>
       <c r="I14" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="4" t="inlineStr">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>-151</v>
+        <v>-152</v>
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
@@ -1210,11 +1210,11 @@
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>-391</v>
+        <v>-392</v>
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
@@ -1259,11 +1259,11 @@
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>-96</v>
+        <v>-97</v>
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
@@ -1296,11 +1296,11 @@
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>-96</v>
+        <v>-97</v>
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
@@ -1345,11 +1345,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1394,11 +1394,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1443,11 +1443,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1492,11 +1492,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1541,11 +1541,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1590,11 +1590,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1627,11 +1627,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
